--- a/biology/Histoire de la zoologie et de la botanique/John_Aspinall/John_Aspinall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Aspinall/John_Aspinall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Victor Aspinall (né le 11 juin 1926 à Delhi et mort le 29 juin 2000) est un créateur et propriétaire de zoos, de nationalité anglaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1956, avec de l'argent, qu'il a dit-il, gagné au jeu, John Aspinall a acheté une maison de campagne et un domaine appelé Howletts près de Cantorbéry, dans le Kent. Il a vécu dans cette demeure de maître et a mis en place un zoo privé, le Howletts Wild Animal Park, sur les terres du domaine. Il a ouvert la collection animale au public en 1975.
 En 1973, en raison de la nécessité d'avoir plus d'espace pour sa collection animale, John Aspinall a acheté un autre domaine à Port Lympne, près de Hythe, dans le Kent. Il a ouvert le domaine au public en 1976 sous le nom de Zoo de Port Lympne.
